--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T14:48:49+00:00</t>
+    <t>2022-10-27T15:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T15:00:12+00:00</t>
+    <t>2022-10-27T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T15:06:33+00:00</t>
+    <t>2022-10-27T15:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T15:52:13+00:00</t>
+    <t>2022-10-27T16:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T16:12:15+00:00</t>
+    <t>2022-10-27T18:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T18:35:25+00:00</t>
+    <t>2022-10-27T18:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T18:36:49+00:00</t>
+    <t>2022-10-27T18:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T18:49:37+00:00</t>
+    <t>2022-10-27T19:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:07:24+00:00</t>
+    <t>2022-10-27T19:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>Masterthesis</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:42:49+00:00</t>
+    <t>2022-10-27T19:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:48:51+00:00</t>
+    <t>2022-10-27T20:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:00:04+00:00</t>
+    <t>2022-10-27T20:07:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:07:25+00:00</t>
+    <t>2022-10-27T20:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Masterthesis</t>
+    <t>Masterthesis University Leipzig</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:24:15+00:00</t>
+    <t>2022-10-27T20:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:31:30+00:00</t>
+    <t>2022-10-27T20:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:43:04+00:00</t>
+    <t>2022-10-27T20:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:44:19+00:00</t>
+    <t>2022-10-27T20:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:52:17+00:00</t>
+    <t>2022-10-27T21:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:05:55+00:00</t>
+    <t>2022-10-27T21:07:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:07:47+00:00</t>
+    <t>2022-10-27T21:14:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:14:50+00:00</t>
+    <t>2022-10-27T21:25:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:25:50+00:00</t>
+    <t>2022-10-27T21:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:41:13+00:00</t>
+    <t>2022-10-27T22:06:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:06:20+00:00</t>
+    <t>2022-10-27T22:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t>Family</t>
+    <t>Familie</t>
   </si>
   <si>
     <t>Members of the human's immediate family.</t>
@@ -314,28 +314,25 @@
 </t>
   </si>
   <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Biological mother, current adoptive mother, or both.</t>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>Biologische Mutter, derzeitige Adoptivmutter oder beides.</t>
   </si>
   <si>
     <t>human-being-logical-model.family.father</t>
   </si>
   <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Biological father, current adoptive father, or both.</t>
+    <t>Biologischer Vater, derzeitiger Adoptivvater oder beides.</t>
   </si>
   <si>
     <t>human-being-logical-model.family.sibling</t>
   </si>
   <si>
-    <t>Sibling</t>
-  </si>
-  <si>
-    <t>Other children of the human's mother and/or father.</t>
+    <t>Geschwister</t>
+  </si>
+  <si>
+    <t>Andere Kinder der Mutter und/oder des Vaters des Menschen.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +656,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="33.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1428,7 +1425,7 @@
         <v>101</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1499,7 +1496,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1525,10 +1522,10 @@
         <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1579,7 +1576,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="104">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Human Being</t>
+    <t>Menschliches Wesen</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:10:40+00:00</t>
+    <t>2022-10-27T22:16:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A member of the Homo sapiens species.</t>
+    <t>Ein Mitglied der Spezies Homo sapiens.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,10 +256,7 @@
 </t>
   </si>
   <si>
-    <t>Name(s) of the human</t>
-  </si>
-  <si>
-    <t>The names by which the human is or has been known</t>
+    <t>Name(n) des Menschen“ „Die Namen, unter denen der Mensch bekannt ist oder war.</t>
   </si>
   <si>
     <t>human-being-logical-model.birthDate</t>
@@ -272,10 +269,10 @@
 </t>
   </si>
   <si>
-    <t>The date of birth, if known</t>
-  </si>
-  <si>
-    <t>The date on which the person was born. Approximations may be used if exact date is unknown.</t>
+    <t>Geburtsdatum, falls bekannt</t>
+  </si>
+  <si>
+    <t>Das Datum, an dem die Person geboren wurde. Näherungswerte können verwendet werden, wenn das genaue Datum unbekannt ist.</t>
   </si>
   <si>
     <t>human-being-logical-model.deceased[x]</t>
@@ -285,10 +282,10 @@
 dateTimeAge</t>
   </si>
   <si>
-    <t>Indication if the human is deceased</t>
-  </si>
-  <si>
-    <t>An indication if the human has died. Boolean should not be used if date or age at death are known.</t>
+    <t>Angabe, ob der Mensch verstorben ist.</t>
+  </si>
+  <si>
+    <t>Ein Hinweis, ob der Mensch gestorben ist. Der boolesche Wert sollte nicht verwendet werden, wenn Datum oder Alter des Todes bekannt sind.</t>
   </si>
   <si>
     <t>human-being-logical-model.family</t>
@@ -301,7 +298,7 @@
     <t>Familie</t>
   </si>
   <si>
-    <t>Members of the human's immediate family.</t>
+    <t>Mitglieder der unmittelbaren Familie des Menschen.</t>
   </si>
   <si>
     <t>human-being-logical-model.family.mother</t>
@@ -656,7 +653,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.21484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -925,7 +922,7 @@
         <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -996,7 +993,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1007,7 +1004,7 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>73</v>
@@ -1019,13 +1016,13 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1076,13 +1073,13 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>73</v>
@@ -1096,7 +1093,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1107,7 +1104,7 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1119,13 +1116,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1176,13 +1173,13 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
@@ -1196,7 +1193,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1207,7 +1204,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1219,13 +1216,13 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1276,13 +1273,13 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1296,7 +1293,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1307,25 +1304,25 @@
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1376,13 +1373,13 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1407,25 +1404,25 @@
         <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1476,13 +1473,13 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>73</v>
@@ -1496,7 +1493,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1519,13 +1516,13 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1576,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:16:40+00:00</t>
+    <t>2022-10-27T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:34:02+00:00</t>
+    <t>2022-11-02T08:45:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -299,6 +299,89 @@
   </si>
   <si>
     <t>Mitglieder der unmittelbaren Familie des Menschen.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>human-being-logical-model.family.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>human-being-logical-model.family.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>human-being-logical-model.family.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>human-being-logical-model.family.mother</t>
@@ -634,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -643,9 +726,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.64453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -670,7 +753,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="39.69921875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1285,7 +1368,7 @@
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -1293,7 +1376,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1304,7 +1387,7 @@
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1373,13 +1456,13 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
@@ -1388,23 +1471,23 @@
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>73</v>
@@ -1416,15 +1499,17 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>73</v>
@@ -1461,39 +1546,39 @@
         <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1504,7 +1589,7 @@
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1519,10 +1604,10 @@
         <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1573,21 +1658,527 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG9" t="s" s="2">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
+      <c r="G10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T08:45:38+00:00</t>
+    <t>2022-11-02T08:59:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T08:59:34+00:00</t>
+    <t>2022-11-02T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T09:54:31+00:00</t>
+    <t>2022-11-03T09:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-human-being-logical-model.xlsx
+++ b/branches/master/StructureDefinition-human-being-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T09:00:01+00:00</t>
+    <t>2022-11-03T09:26:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
